--- a/语法/日本語発音.xlsx
+++ b/语法/日本語発音.xlsx
@@ -1,26 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B1C2A-79EB-4D35-9A4D-8ED791D019E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋（cu）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酢(す)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c-&gt;s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機（き）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机（ji）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +85,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +143,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +439,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="5" width="36.58203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>